--- a/src/main/resources/Resources/TestData/Registration.xlsx
+++ b/src/main/resources/Resources/TestData/Registration.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01886490-1DA6-4AE1-A122-426D2521C0B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="5190" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="5190" windowWidth="20460" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>runMode</t>
   </si>
@@ -61,19 +60,22 @@
     <t>M</t>
   </si>
   <si>
-    <t>pankaj.missguided+0019@gmail.com</t>
-  </si>
-  <si>
-    <t>UnitedKingdom</t>
-  </si>
-  <si>
     <t>Pa55w0rd#</t>
+  </si>
+  <si>
+    <t>09-Oct-2005</t>
+  </si>
+  <si>
+    <t>UK National</t>
+  </si>
+  <si>
+    <t>pankaj.missguided145@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,10 +114,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -396,11 +399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,23 +453,23 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1">
-        <v>33125</v>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
@@ -474,7 +477,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A989B355-EDB3-4D59-81F7-CED7C7BD78BD}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
